--- a/biology/Microbiologie/Anaerococcus/Anaerococcus.xlsx
+++ b/biology/Microbiologie/Anaerococcus/Anaerococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anaerococcus est un genre de bactéries. Son espèce type est Anaerococcus prevotii[2]. Ces bactéries sont Gram positif, anaérobies, indole-négatif cocci. Son génome a été séquencé en août 2009. Il peut causer une infection et est une partie normale du microbiome humain[3].
-Il s'agit d'un agent pathogène de l'être humain qui se trouve dans l'abcès tubo-ovarien, l'abcès, la plaie chronique et la décharge vaginale. Il peut être présent dans infection des voies urinaires, ulcères chroniques, empyème pleural, infection du sang et tissu mou infection. Il est impliqué dans les infections polymicrobiennes[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaerococcus est un genre de bactéries. Son espèce type est Anaerococcus prevotii. Ces bactéries sont Gram positif, anaérobies, indole-négatif cocci. Son génome a été séquencé en août 2009. Il peut causer une infection et est une partie normale du microbiome humain.
+Il s'agit d'un agent pathogène de l'être humain qui se trouve dans l'abcès tubo-ovarien, l'abcès, la plaie chronique et la décharge vaginale. Il peut être présent dans infection des voies urinaires, ulcères chroniques, empyème pleural, infection du sang et tissu mou infection. Il est impliqué dans les infections polymicrobiennes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2020)[5] et ITIS      (30 novembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 novembre 2020) et ITIS      (30 novembre 2020) :
 Anaerococcus hydrogenalis (Ezaki &amp; al., 1990) Ezaki &amp; al., 2001
 Anaerococcus lactolyticus (Li &amp; al., 1992) Ezaki &amp; al., 2001
 Anaerococcus murdochii Song &amp; al., 2010
@@ -522,7 +536,7 @@
 Anaerococcus prevotii (Foubert &amp; Douglas, 1948) Ezaki &amp; al., 2001
 Anaerococcus tetradius (Ezaki &amp; al., 1983) Ezaki &amp; al., 2001
 Anaerococcus vaginalis (Li &amp; al., 1992) Ezaki &amp; al., 2001
-Selon NCBI  (30 novembre 2020)[6] :
+Selon NCBI  (30 novembre 2020) :
 Anaerococcus degeneri Veloo &amp; al. 2015
 Anaerococcus hydrogenalis (Ezaki &amp; al. 1990) Ezaki &amp; al. 2001
 Anaerococcus jeddahensis Dione &amp; al. 2018
@@ -573,7 +587,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Ezaki T, Kawamura Y, Li N, Li ZY, Zhao L et Shu S, « Proposal of the genera Anaerococcus gen. nov., Peptoniphilus gen. nov. and Gallicola gen. nov. for members of the genus Peptostreptococcus », International Journal of Systematic and Evolutionary Microbiology, Society for General Microbiology (d), vol. 51, no 4,‎ 1er juillet 2001, p. 1521-1528 (ISSN 1466-5026 et 1466-5034, OCLC 807119723, PMID 11491354, DOI 10.1099/00207713-51-4-1521, lire en ligne)</t>
         </is>
